--- a/AS2/assignment #2b workbook.xlsx
+++ b/AS2/assignment #2b workbook.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve">Screenshot #1:</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">Answer to question #5:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a volume is a storage pool, </t>
   </si>
   <si>
     <t xml:space="preserve">Answer to question #6:</t>
@@ -110,6 +113,7 @@
       <color rgb="FF231F20"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,13 +247,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,25 +307,28 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -348,8 +355,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,17 +401,17 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
